--- a/Keymap.xlsx
+++ b/Keymap.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>n</t>
   </si>
@@ -21,15 +21,15 @@
     <t>template</t>
   </si>
   <si>
+    <t>super</t>
+  </si>
+  <si>
     <t>t[3]</t>
   </si>
   <si>
     <t>h[4]</t>
   </si>
   <si>
-    <t>super</t>
-  </si>
-  <si>
     <t>alt</t>
   </si>
   <si>
@@ -171,6 +171,12 @@
     <t>f5</t>
   </si>
   <si>
+    <t>f6</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
@@ -180,37 +186,52 @@
     <t>nummers</t>
   </si>
   <si>
+    <t>f7</t>
+  </si>
+  <si>
+    <t>f8</t>
+  </si>
+  <si>
+    <t>[left]</t>
+  </si>
+  <si>
+    <t>[up]</t>
+  </si>
+  <si>
+    <t>[right]</t>
+  </si>
+  <si>
+    <t>[']</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>f9</t>
+  </si>
+  <si>
+    <t>f10</t>
+  </si>
+  <si>
+    <t>f11</t>
+  </si>
+  <si>
+    <t>[down]</t>
+  </si>
+  <si>
+    <t>f12</t>
+  </si>
+  <si>
     <t>f13</t>
   </si>
   <si>
-    <t>[left]</t>
-  </si>
-  <si>
-    <t>[up]!</t>
-  </si>
-  <si>
-    <t>[right]</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>f6</t>
-  </si>
-  <si>
-    <t>f8</t>
-  </si>
-  <si>
-    <t>[down]</t>
-  </si>
-  <si>
-    <t>f10</t>
-  </si>
-  <si>
-    <t>f11</t>
+    <t>&gt;</t>
   </si>
   <si>
     <t>-</t>
@@ -237,9 +258,6 @@
     <t>"</t>
   </si>
   <si>
-    <t>&lt;</t>
-  </si>
-  <si>
     <t>{</t>
   </si>
   <si>
@@ -252,6 +270,9 @@
     <t>_</t>
   </si>
   <si>
+    <t>+-</t>
+  </si>
+  <si>
     <t>%</t>
   </si>
   <si>
@@ -261,12 +282,6 @@
     <t>,</t>
   </si>
   <si>
-    <t>[']</t>
-  </si>
-  <si>
-    <t>^</t>
-  </si>
-  <si>
     <t>|</t>
   </si>
   <si>
@@ -294,9 +309,6 @@
     <t>`</t>
   </si>
   <si>
-    <t>&gt;</t>
-  </si>
-  <si>
     <t>\</t>
   </si>
   <si>
@@ -309,7 +321,28 @@
     <t>gaming</t>
   </si>
   <si>
+    <t>rctrl</t>
+  </si>
+  <si>
     <t>t[1]</t>
+  </si>
+  <si>
+    <t>bt[0]</t>
+  </si>
+  <si>
+    <t>bt[1]</t>
+  </si>
+  <si>
+    <t>bt[2]</t>
+  </si>
+  <si>
+    <t>bt[3]</t>
+  </si>
+  <si>
+    <t>bt[4]</t>
+  </si>
+  <si>
+    <t>bt_clr</t>
   </si>
   <si>
     <t>media_nxt</t>
@@ -431,6 +464,15 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -455,20 +497,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="22">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
@@ -479,30 +512,20 @@
     <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" quotePrefix="1"/>
     <xf fontId="0" fillId="5" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="3" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="3" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1010,7 +1033,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1091,16 +1114,18 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="8" t="s">
+      <c r="P9" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="Q9" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="R9" s="1"/>
-      <c r="S9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="T9" s="8" t="s">
+      <c r="S9" s="7" t="s">
         <v>4</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
@@ -1147,32 +1172,32 @@
       <c r="M10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="P10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="Q10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="R10" s="1"/>
-      <c r="S10" s="8" t="s">
+      <c r="S10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="T10" s="8" t="s">
+      <c r="T10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="U10" s="9" t="s">
+      <c r="U10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="V10" s="8" t="s">
+      <c r="V10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="W10" s="10" t="s">
+      <c r="W10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="X10" s="1"/>
@@ -1299,7 +1324,7 @@
         <v>24</v>
       </c>
       <c r="Y13" s="2"/>
-      <c r="Z13" s="11" t="s">
+      <c r="Z13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AB13" s="1"/>
@@ -1368,10 +1393,10 @@
       <c r="X14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Y14" s="12" t="s">
+      <c r="Y14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Z14" s="11" t="s">
+      <c r="Z14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AB14" s="1"/>
@@ -1422,14 +1447,16 @@
       <c r="O15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8" t="s">
+      <c r="P15" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="Q15" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="R15" s="1"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8" t="s">
-        <v>4</v>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="U15" s="2" t="s">
         <v>44</v>
@@ -1440,9 +1467,11 @@
       <c r="W15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X15" s="2"/>
+      <c r="X15" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="11" t="s">
+      <c r="Z15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AB15" s="1"/>
@@ -1478,32 +1507,32 @@
       <c r="M16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="N16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O16" s="9" t="s">
+      <c r="O16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="P16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="8" t="s">
+      <c r="Q16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="T16" s="8" t="s">
+      <c r="T16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="U16" s="9" t="s">
+      <c r="U16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="V16" s="8" t="s">
+      <c r="V16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="W16" s="10" t="s">
+      <c r="W16" s="9" t="s">
         <v>14</v>
       </c>
       <c r="AB16" s="1"/>
@@ -1596,30 +1625,32 @@
       <c r="BC18" s="1"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M19" s="11" t="s">
+      <c r="M19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N19" s="11" t="s">
+      <c r="N19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-      <c r="U19" s="2"/>
+      <c r="U19" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="V19" s="2">
         <v>7</v>
       </c>
@@ -1630,10 +1661,10 @@
         <v>9</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
@@ -1669,30 +1700,34 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="L20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="2"/>
+      <c r="U20" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="V20" s="4">
         <v>4</v>
       </c>
@@ -1703,10 +1738,10 @@
         <v>6</v>
       </c>
       <c r="Y20" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
@@ -1739,29 +1774,35 @@
     </row>
     <row r="21" ht="14.25">
       <c r="J21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K21" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="L21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
+        <v>71</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="7"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="2"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="V21" s="2">
         <v>1</v>
       </c>
@@ -1772,10 +1813,10 @@
         <v>3</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
@@ -1813,30 +1854,30 @@
       <c r="M22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="14"/>
+      <c r="N22" s="11"/>
       <c r="O22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P22" s="8" t="s">
+      <c r="P22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="8" t="s">
+      <c r="Q22" s="7" t="s">
         <v>9</v>
       </c>
       <c r="R22" s="1"/>
-      <c r="S22" s="8" t="s">
+      <c r="S22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="U22" s="9" t="s">
+      <c r="T22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="V22" s="8">
+      <c r="V22" s="7">
         <v>0</v>
       </c>
-      <c r="W22" s="10" t="s">
+      <c r="W22" s="9" t="s">
         <v>14</v>
       </c>
       <c r="X22" s="1"/>
@@ -1970,22 +2011,22 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -1993,22 +2034,22 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
@@ -2044,24 +2085,26 @@
         <v>2</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K26" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="L26" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M26" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -2069,22 +2112,22 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Y26" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="Z26" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
@@ -2120,47 +2163,49 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
+        <v>97</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="7"/>
       <c r="R27" s="1"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8" t="s">
-        <v>4</v>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Z27" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
@@ -2201,28 +2246,28 @@
       <c r="M28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N28" s="8"/>
-      <c r="O28" s="9" t="s">
+      <c r="N28" s="7"/>
+      <c r="O28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P28" s="8" t="s">
+      <c r="P28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Q28" s="8" t="s">
+      <c r="Q28" s="7" t="s">
         <v>9</v>
       </c>
       <c r="R28" s="1"/>
-      <c r="S28" s="8" t="s">
+      <c r="S28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="T28" s="8" t="s">
+      <c r="T28" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="U28" s="8" t="s">
+      <c r="U28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="V28" s="14"/>
-      <c r="W28" s="10" t="s">
+      <c r="V28" s="11"/>
+      <c r="W28" s="9" t="s">
         <v>14</v>
       </c>
       <c r="X28" s="1"/>
@@ -2321,22 +2366,22 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="16" t="s">
+      <c r="J31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K31" s="2">
         <v>1</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L31" s="2">
         <v>2</v>
       </c>
-      <c r="M31" s="16">
+      <c r="M31" s="2">
         <v>3</v>
       </c>
-      <c r="N31" s="17">
+      <c r="N31" s="2">
         <v>4</v>
       </c>
-      <c r="O31" s="16">
+      <c r="O31" s="2">
         <v>5</v>
       </c>
       <c r="P31" s="1"/>
@@ -2384,25 +2429,25 @@
         <v>3</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="16" t="s">
+      <c r="J32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K32" s="18" t="s">
+      <c r="K32" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L32" s="18" t="s">
+      <c r="L32" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M32" s="19" t="s">
+      <c r="M32" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N32" s="18" t="s">
+      <c r="N32" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O32" s="17" t="s">
+      <c r="O32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="P32" s="1"/>
@@ -2410,11 +2455,19 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
+      <c r="U32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="X32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y32" s="14"/>
       <c r="Z32" s="2"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
@@ -2450,35 +2503,37 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="17" t="s">
+      <c r="J33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K33" s="17" t="s">
+      <c r="K33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L33" s="17" t="s">
+      <c r="L33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M33" s="16" t="s">
+      <c r="M33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N33" s="17" t="s">
+      <c r="N33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O33" s="17" t="s">
+      <c r="O33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8" t="s">
-        <v>98</v>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="R33" s="1"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
       <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="X33" s="15"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
       <c r="AB33" s="1"/>
@@ -2515,30 +2570,30 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="21" t="s">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N34" s="9" t="s">
+      <c r="N34" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O34" s="22" t="s">
+      <c r="O34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
       <c r="R34" s="1"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
       <c r="U34" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="V34" s="8" t="s">
+      <c r="V34" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="W34" s="10" t="s">
+      <c r="W34" s="9" t="s">
         <v>14</v>
       </c>
       <c r="X34" s="1"/>
@@ -2638,24 +2693,36 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="2"/>
+      <c r="J37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="M37" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="N37" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="2"/>
-      <c r="V37" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="23"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y37" s="16"/>
       <c r="Z37" s="2"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
@@ -2691,28 +2758,28 @@
         <v>4</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="I38" s="1"/>
-      <c r="J38" s="24"/>
+      <c r="J38" s="17"/>
       <c r="K38" s="4"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="6"/>
-      <c r="O38" s="25"/>
+      <c r="O38" s="18"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="U38" s="17"/>
+      <c r="V38" s="4"/>
       <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
+      <c r="X38" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="Y38" s="6"/>
-      <c r="Z38" s="25"/>
+      <c r="Z38" s="18"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
@@ -2747,27 +2814,27 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8" t="s">
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R39" s="1"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R39" s="1"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="8" t="s">
-        <v>4</v>
-      </c>
       <c r="U39" s="2"/>
-      <c r="V39" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="W39" s="26"/>
-      <c r="X39" s="26"/>
-      <c r="Y39" s="26"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y39" s="15"/>
       <c r="Z39" s="2"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
@@ -2805,33 +2872,33 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="28" t="s">
+      <c r="M40" s="7"/>
+      <c r="N40" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="O40" s="9" t="s">
+      <c r="O40" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P40" s="29" t="s">
+      <c r="P40" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="Q40" s="8" t="s">
+      <c r="Q40" s="7" t="s">
         <v>9</v>
       </c>
       <c r="R40" s="1"/>
-      <c r="S40" s="8" t="s">
+      <c r="S40" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="T40" s="8" t="s">
+      <c r="T40" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="U40" s="8" t="s">
+      <c r="U40" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="V40" s="8" t="s">
+      <c r="V40" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="W40" s="10" t="s">
+      <c r="W40" s="9" t="s">
         <v>14</v>
       </c>
       <c r="X40" s="1"/>

--- a/Keymap.xlsx
+++ b/Keymap.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>n</t>
   </si>
@@ -345,13 +345,22 @@
     <t>bt_clr</t>
   </si>
   <si>
+    <t>bl_bright</t>
+  </si>
+  <si>
     <t>media_nxt</t>
   </si>
   <si>
     <t>apparaat</t>
   </si>
   <si>
+    <t>bl_tog</t>
+  </si>
+  <si>
     <t>media_playpause</t>
+  </si>
+  <si>
+    <t>bl_dark</t>
   </si>
   <si>
     <t>media_prev</t>
@@ -501,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
@@ -521,8 +530,10 @@
     <xf fontId="0" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="3" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="3" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2716,11 +2727,13 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
-      <c r="U37" s="2"/>
+      <c r="U37" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
       <c r="X37" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y37" s="16"/>
       <c r="Z37" s="2"/>
@@ -2758,28 +2771,30 @@
         <v>4</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I38" s="1"/>
-      <c r="J38" s="17"/>
+      <c r="J38" s="18"/>
       <c r="K38" s="4"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="6"/>
-      <c r="O38" s="18"/>
+      <c r="O38" s="19"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-      <c r="U38" s="17"/>
+      <c r="U38" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="V38" s="4"/>
       <c r="W38" s="5"/>
       <c r="X38" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Y38" s="6"/>
-      <c r="Z38" s="18"/>
+      <c r="Z38" s="19"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
@@ -2824,15 +2839,17 @@
         <v>3</v>
       </c>
       <c r="R39" s="1"/>
-      <c r="S39" s="19"/>
+      <c r="S39" s="21"/>
       <c r="T39" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U39" s="2"/>
+      <c r="U39" s="17" t="s">
+        <v>115</v>
+      </c>
       <c r="V39" s="15"/>
       <c r="W39" s="15"/>
       <c r="X39" s="15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y39" s="15"/>
       <c r="Z39" s="2"/>
@@ -2873,13 +2890,13 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="20" t="s">
+      <c r="N40" s="22" t="s">
         <v>6</v>
       </c>
       <c r="O40" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P40" s="21" t="s">
+      <c r="P40" s="23" t="s">
         <v>38</v>
       </c>
       <c r="Q40" s="7" t="s">

--- a/Keymap.xlsx
+++ b/Keymap.xlsx
@@ -249,58 +249,58 @@
     <t>€</t>
   </si>
   <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>leestekens</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>+-</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>capslock</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>leestekens</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>+-</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>capslock</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>!</t>
   </si>
   <si>
     <t>;</t>
@@ -510,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
@@ -525,15 +525,14 @@
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" quotePrefix="1"/>
     <xf fontId="0" fillId="5" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf fontId="0" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="3" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="3" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2030,7 +2029,7 @@
       <c r="L25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="12" t="s">
         <v>78</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -2102,13 +2101,13 @@
       <c r="J26" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="13" t="s">
         <v>85</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="M26" s="13" t="s">
+      <c r="M26" s="14" t="s">
         <v>87</v>
       </c>
       <c r="N26" s="6" t="s">
@@ -2182,7 +2181,7 @@
       <c r="L27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="12" t="s">
         <v>95</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -2446,16 +2445,16 @@
       <c r="J32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K32" s="14" t="s">
+      <c r="K32" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L32" s="14" t="s">
+      <c r="L32" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="M32" s="14" t="s">
+      <c r="M32" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N32" s="14" t="s">
+      <c r="N32" s="15" t="s">
         <v>30</v>
       </c>
       <c r="O32" s="2" t="s">
@@ -2478,7 +2477,7 @@
       <c r="X32" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="Y32" s="14"/>
+      <c r="Y32" s="15"/>
       <c r="Z32" s="2"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
@@ -2540,11 +2539,11 @@
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="2"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15" t="s">
+      <c r="V33" s="16"/>
+      <c r="W33" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="X33" s="15"/>
+      <c r="X33" s="16"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
       <c r="AB33" s="1"/>
@@ -2707,16 +2706,16 @@
       <c r="J37" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="K37" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="L37" s="16" t="s">
+      <c r="L37" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="M37" s="16" t="s">
+      <c r="M37" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="N37" s="16" t="s">
+      <c r="N37" s="17" t="s">
         <v>108</v>
       </c>
       <c r="O37" s="2" t="s">
@@ -2727,15 +2726,15 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
-      <c r="U37" s="17" t="s">
+      <c r="U37" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16" t="s">
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="Y37" s="16"/>
+      <c r="Y37" s="17"/>
       <c r="Z37" s="2"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
@@ -2785,7 +2784,7 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-      <c r="U38" s="20" t="s">
+      <c r="U38" s="18" t="s">
         <v>113</v>
       </c>
       <c r="V38" s="4"/>
@@ -2829,29 +2828,29 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="17"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7" t="s">
         <v>3</v>
       </c>
       <c r="R39" s="1"/>
-      <c r="S39" s="21"/>
+      <c r="S39" s="20"/>
       <c r="T39" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U39" s="17" t="s">
+      <c r="U39" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15" t="s">
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="Y39" s="15"/>
+      <c r="Y39" s="16"/>
       <c r="Z39" s="2"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
@@ -2890,13 +2889,13 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="22" t="s">
+      <c r="N40" s="21" t="s">
         <v>6</v>
       </c>
       <c r="O40" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P40" s="23" t="s">
+      <c r="P40" s="22" t="s">
         <v>38</v>
       </c>
       <c r="Q40" s="7" t="s">
